--- a/CP/Modules/Copy of Junior Training Sheet - template - V6.0 yash.xlsx
+++ b/CP/Modules/Copy of Junior Training Sheet - template - V6.0 yash.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\study\1-My C.P\CP\Modules\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{019E083D-9CB7-4EE0-9B00-4A86BF3F9316}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51554CCA-4E43-4F74-BDD1-FD6C081B2502}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12696" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1569" uniqueCount="1301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1575" uniqueCount="1301">
   <si>
     <t>Problem Name</t>
   </si>
@@ -6651,30 +6651,36 @@
     <xf numFmtId="0" fontId="173" fillId="9" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -6688,22 +6694,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -7909,10 +7909,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="13.2">
-      <c r="A1" s="251" t="s">
+      <c r="A1" s="246" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="254" t="s">
+      <c r="B1" s="256" t="s">
         <v>4</v>
       </c>
       <c r="C1" s="245"/>
@@ -7924,7 +7924,7 @@
     </row>
     <row r="2" spans="1:8" ht="26.4">
       <c r="A2" s="245"/>
-      <c r="B2" s="254" t="s">
+      <c r="B2" s="256" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="245"/>
@@ -7942,7 +7942,7 @@
     </row>
     <row r="3" spans="1:8" ht="13.2">
       <c r="A3" s="245"/>
-      <c r="B3" s="253" t="str">
+      <c r="B3" s="255" t="str">
         <f>HYPERLINK("https://www.youtube.com/watch?v=DZ6YTtILCE8","Video explaining this sheet (Arabic), though a bit outdated")</f>
         <v>Video explaining this sheet (Arabic), though a bit outdated</v>
       </c>
@@ -7955,7 +7955,7 @@
     </row>
     <row r="4" spans="1:8" ht="13.2">
       <c r="A4" s="245"/>
-      <c r="B4" s="258" t="s">
+      <c r="B4" s="252" t="s">
         <v>29</v>
       </c>
       <c r="C4" s="245"/>
@@ -7979,7 +7979,7 @@
       <c r="A6" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="247" t="s">
+      <c r="B6" s="248" t="s">
         <v>34</v>
       </c>
       <c r="C6" s="245"/>
@@ -8003,7 +8003,7 @@
       <c r="A8" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="259" t="s">
+      <c r="B8" s="253" t="s">
         <v>39</v>
       </c>
       <c r="C8" s="245"/>
@@ -8027,7 +8027,7 @@
       <c r="A10" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B10" s="248" t="s">
+      <c r="B10" s="251" t="s">
         <v>49</v>
       </c>
       <c r="C10" s="245"/>
@@ -8041,7 +8041,7 @@
       <c r="A11" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="B11" s="247" t="s">
+      <c r="B11" s="248" t="s">
         <v>57</v>
       </c>
       <c r="C11" s="245"/>
@@ -8052,10 +8052,10 @@
       <c r="H11" s="245"/>
     </row>
     <row r="12" spans="1:8" ht="13.2">
-      <c r="A12" s="251" t="s">
+      <c r="A12" s="246" t="s">
         <v>59</v>
       </c>
-      <c r="B12" s="248" t="s">
+      <c r="B12" s="251" t="s">
         <v>61</v>
       </c>
       <c r="C12" s="245"/>
@@ -8063,7 +8063,7 @@
         <f>HYPERLINK("https://www.youtube.com/playlist?list=PLPt2dINI2MIZPFq6HyUB1Uhxdh1UDnZMS","C++ Programming")</f>
         <v>C++ Programming</v>
       </c>
-      <c r="E12" s="248" t="s">
+      <c r="E12" s="251" t="s">
         <v>70</v>
       </c>
       <c r="F12" s="245"/>
@@ -8075,7 +8075,7 @@
     </row>
     <row r="13" spans="1:8" ht="13.2">
       <c r="A13" s="245"/>
-      <c r="B13" s="248" t="s">
+      <c r="B13" s="251" t="s">
         <v>75</v>
       </c>
       <c r="C13" s="245"/>
@@ -8093,13 +8093,13 @@
     </row>
     <row r="14" spans="1:8" ht="13.2">
       <c r="A14" s="245"/>
-      <c r="B14" s="260" t="s">
+      <c r="B14" s="254" t="s">
         <v>76</v>
       </c>
       <c r="C14" s="245"/>
       <c r="D14" s="245"/>
       <c r="E14" s="245"/>
-      <c r="F14" s="255" t="str">
+      <c r="F14" s="257" t="str">
         <f>HYPERLINK("https://www.youtube.com/playlist?list=PLPt2dINI2MIaNcU070HIAO8JWYBcafuyG","Watch these videos for more details")</f>
         <v>Watch these videos for more details</v>
       </c>
@@ -8108,17 +8108,17 @@
     </row>
     <row r="15" spans="1:8" ht="13.2">
       <c r="A15" s="245"/>
-      <c r="B15" s="248" t="s">
+      <c r="B15" s="251" t="s">
         <v>77</v>
       </c>
       <c r="C15" s="245"/>
       <c r="D15" s="245"/>
-      <c r="E15" s="246" t="str">
+      <c r="E15" s="261" t="str">
         <f>HYPERLINK("https://www.youtube.com/channel/UC2xOPGjIhLKsgUZEiunlzWQ/playlists","Solver to be Channel")</f>
         <v>Solver to be Channel</v>
       </c>
       <c r="F15" s="245"/>
-      <c r="G15" s="246" t="str">
+      <c r="G15" s="261" t="str">
         <f>HYPERLINK("https://www.youtube.com/user/codemasrytube/playlists","Code El Masry Channel")</f>
         <v>Code El Masry Channel</v>
       </c>
@@ -8138,7 +8138,7 @@
       <c r="A17" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="B17" s="256" t="s">
+      <c r="B17" s="258" t="s">
         <v>80</v>
       </c>
       <c r="C17" s="245"/>
@@ -8162,7 +8162,7 @@
       <c r="A19" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B19" s="248" t="s">
+      <c r="B19" s="251" t="s">
         <v>84</v>
       </c>
       <c r="C19" s="245"/>
@@ -8176,7 +8176,7 @@
       <c r="A20" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="B20" s="247" t="s">
+      <c r="B20" s="248" t="s">
         <v>86</v>
       </c>
       <c r="C20" s="245"/>
@@ -8197,10 +8197,10 @@
       <c r="H21" s="12"/>
     </row>
     <row r="22" spans="1:8" ht="13.2">
-      <c r="A22" s="251" t="s">
+      <c r="A22" s="246" t="s">
         <v>87</v>
       </c>
-      <c r="B22" s="248" t="s">
+      <c r="B22" s="251" t="s">
         <v>88</v>
       </c>
       <c r="C22" s="245"/>
@@ -8212,7 +8212,7 @@
     </row>
     <row r="23" spans="1:8" ht="13.2">
       <c r="A23" s="245"/>
-      <c r="B23" s="247" t="s">
+      <c r="B23" s="248" t="s">
         <v>89</v>
       </c>
       <c r="C23" s="245"/>
@@ -8224,7 +8224,7 @@
     </row>
     <row r="24" spans="1:8" ht="13.2">
       <c r="A24" s="245"/>
-      <c r="B24" s="248" t="s">
+      <c r="B24" s="251" t="s">
         <v>90</v>
       </c>
       <c r="C24" s="245"/>
@@ -8236,7 +8236,7 @@
     </row>
     <row r="25" spans="1:8" ht="13.2">
       <c r="A25" s="245"/>
-      <c r="B25" s="247" t="s">
+      <c r="B25" s="248" t="s">
         <v>91</v>
       </c>
       <c r="C25" s="245"/>
@@ -8248,7 +8248,7 @@
     </row>
     <row r="26" spans="1:8" ht="13.2">
       <c r="A26" s="245"/>
-      <c r="B26" s="248" t="s">
+      <c r="B26" s="251" t="s">
         <v>92</v>
       </c>
       <c r="C26" s="245"/>
@@ -8260,7 +8260,7 @@
     </row>
     <row r="27" spans="1:8" ht="13.2">
       <c r="A27" s="245"/>
-      <c r="B27" s="247" t="s">
+      <c r="B27" s="248" t="s">
         <v>93</v>
       </c>
       <c r="C27" s="245"/>
@@ -8272,7 +8272,7 @@
     </row>
     <row r="28" spans="1:8" ht="13.2">
       <c r="A28" s="245"/>
-      <c r="B28" s="248" t="s">
+      <c r="B28" s="251" t="s">
         <v>94</v>
       </c>
       <c r="C28" s="245"/>
@@ -8294,7 +8294,7 @@
       <c r="D29" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="E29" s="252" t="s">
+      <c r="E29" s="259" t="s">
         <v>102</v>
       </c>
       <c r="F29" s="245"/>
@@ -8303,7 +8303,7 @@
     </row>
     <row r="30" spans="1:8" ht="13.2">
       <c r="A30" s="245"/>
-      <c r="B30" s="248" t="s">
+      <c r="B30" s="251" t="s">
         <v>105</v>
       </c>
       <c r="C30" s="245"/>
@@ -8315,7 +8315,7 @@
     </row>
     <row r="31" spans="1:8" ht="13.2">
       <c r="A31" s="245"/>
-      <c r="B31" s="247" t="s">
+      <c r="B31" s="248" t="s">
         <v>107</v>
       </c>
       <c r="C31" s="245"/>
@@ -8327,7 +8327,7 @@
     </row>
     <row r="32" spans="1:8" ht="13.2">
       <c r="A32" s="245"/>
-      <c r="B32" s="248" t="s">
+      <c r="B32" s="251" t="s">
         <v>108</v>
       </c>
       <c r="C32" s="245"/>
@@ -8351,7 +8351,7 @@
       <c r="A34" s="33" t="s">
         <v>109</v>
       </c>
-      <c r="B34" s="247" t="s">
+      <c r="B34" s="248" t="s">
         <v>114</v>
       </c>
       <c r="C34" s="245"/>
@@ -8372,14 +8372,14 @@
       <c r="H35" s="12"/>
     </row>
     <row r="36" spans="1:8" ht="13.2">
-      <c r="A36" s="251" t="s">
+      <c r="A36" s="246" t="s">
         <v>118</v>
       </c>
       <c r="B36" s="35" t="str">
         <f>HYPERLINK("http://codeforces.com/contest/136/problem/A","CF136-D2-A")</f>
         <v>CF136-D2-A</v>
       </c>
-      <c r="C36" s="247" t="s">
+      <c r="C36" s="248" t="s">
         <v>123</v>
       </c>
       <c r="D36" s="245"/>
@@ -8393,7 +8393,7 @@
       <c r="B37" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="C37" s="247" t="s">
+      <c r="C37" s="248" t="s">
         <v>125</v>
       </c>
       <c r="D37" s="245"/>
@@ -8413,14 +8413,14 @@
       <c r="H38" s="12"/>
     </row>
     <row r="39" spans="1:8" ht="13.2">
-      <c r="A39" s="251" t="s">
+      <c r="A39" s="246" t="s">
         <v>126</v>
       </c>
       <c r="B39" s="37" t="str">
         <f>HYPERLINK("http://codeforces.com/contest/483/problem/A","CF483-D2-A")</f>
         <v>CF483-D2-A</v>
       </c>
-      <c r="C39" s="247" t="s">
+      <c r="C39" s="248" t="s">
         <v>128</v>
       </c>
       <c r="D39" s="245"/>
@@ -8435,7 +8435,7 @@
         <f>HYPERLINK("https://uva.onlinejudge.org/index.php?option=onlinejudge&amp;page=show_problem&amp;problem=1183","UVA 10242")</f>
         <v>UVA 10242</v>
       </c>
-      <c r="C40" s="247" t="s">
+      <c r="C40" s="248" t="s">
         <v>129</v>
       </c>
       <c r="D40" s="245"/>
@@ -8450,7 +8450,7 @@
         <f>HYPERLINK("http://www.spoj.com/problems/CDOWN/","SPOJ CDOWN")</f>
         <v>SPOJ CDOWN</v>
       </c>
-      <c r="C41" s="247" t="s">
+      <c r="C41" s="248" t="s">
         <v>130</v>
       </c>
       <c r="D41" s="245"/>
@@ -8465,7 +8465,7 @@
         <f>HYPERLINK("http://codeforces.com/contest/518/problem/B","CF518-D2-B")</f>
         <v>CF518-D2-B</v>
       </c>
-      <c r="C42" s="247" t="s">
+      <c r="C42" s="248" t="s">
         <v>132</v>
       </c>
       <c r="D42" s="245"/>
@@ -8488,7 +8488,7 @@
       <c r="A44" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B44" s="247" t="s">
+      <c r="B44" s="248" t="s">
         <v>134</v>
       </c>
       <c r="C44" s="245"/>
@@ -8512,7 +8512,7 @@
       <c r="A46" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B46" s="247" t="s">
+      <c r="B46" s="248" t="s">
         <v>136</v>
       </c>
       <c r="C46" s="245"/>
@@ -8533,15 +8533,15 @@
       <c r="H47" s="12"/>
     </row>
     <row r="48" spans="1:8" ht="13.2">
-      <c r="A48" s="251" t="s">
+      <c r="A48" s="246" t="s">
         <v>137</v>
       </c>
-      <c r="B48" s="249" t="str">
+      <c r="B48" s="262" t="str">
         <f>HYPERLINK("https://github.com/lnishan/awesome-competitive-programming","Awesome Competitive Programming")</f>
         <v>Awesome Competitive Programming</v>
       </c>
       <c r="C48" s="245"/>
-      <c r="D48" s="247" t="s">
+      <c r="D48" s="248" t="s">
         <v>139</v>
       </c>
       <c r="E48" s="245"/>
@@ -8551,12 +8551,12 @@
     </row>
     <row r="49" spans="1:8" ht="13.2">
       <c r="A49" s="245"/>
-      <c r="B49" s="249" t="str">
+      <c r="B49" s="262" t="str">
         <f>HYPERLINK("https://github.com/AhmadElsagheer/Competitive-programming-library/tree/master/curriculum","Ahmed Elsaghir Trainnig")</f>
         <v>Ahmed Elsaghir Trainnig</v>
       </c>
       <c r="C49" s="245"/>
-      <c r="D49" s="247" t="s">
+      <c r="D49" s="248" t="s">
         <v>140</v>
       </c>
       <c r="E49" s="245"/>
@@ -8566,12 +8566,12 @@
     </row>
     <row r="50" spans="1:8" ht="13.2">
       <c r="A50" s="245"/>
-      <c r="B50" s="249" t="str">
+      <c r="B50" s="262" t="str">
         <f>HYPERLINK("https://a2oj.com/ladders","A2oj Ladders")</f>
         <v>A2oj Ladders</v>
       </c>
       <c r="C50" s="245"/>
-      <c r="D50" s="247" t="s">
+      <c r="D50" s="248" t="s">
         <v>141</v>
       </c>
       <c r="E50" s="245"/>
@@ -8581,12 +8581,12 @@
     </row>
     <row r="51" spans="1:8" ht="13.2">
       <c r="A51" s="245"/>
-      <c r="B51" s="250" t="str">
+      <c r="B51" s="244" t="str">
         <f>HYPERLINK("https://www.youtube.com/watch?v=mUSajNUEWxg&amp;list=PLb7yniFBnvZIdfxYIKqNlGsTf5oZy4dKk","Prgramming Ahmed M sayd")</f>
         <v>Prgramming Ahmed M sayd</v>
       </c>
       <c r="C51" s="245"/>
-      <c r="D51" s="247" t="s">
+      <c r="D51" s="248" t="s">
         <v>142</v>
       </c>
       <c r="E51" s="245"/>
@@ -8596,12 +8596,12 @@
     </row>
     <row r="52" spans="1:8" ht="13.2">
       <c r="A52" s="245"/>
-      <c r="B52" s="250" t="str">
+      <c r="B52" s="244" t="str">
         <f>HYPERLINK("https://www.youtube.com/watch?v=Oc2j4cathVo&amp;list=PLqoqkiGo-sn0rs53nSUaLZI2kPvG_XM7G","Programming Mohamed desouky")</f>
         <v>Programming Mohamed desouky</v>
       </c>
       <c r="C52" s="245"/>
-      <c r="D52" s="247" t="s">
+      <c r="D52" s="248" t="s">
         <v>142</v>
       </c>
       <c r="E52" s="245"/>
@@ -8616,7 +8616,7 @@
         <v>More Resources</v>
       </c>
       <c r="C53" s="45"/>
-      <c r="D53" s="247" t="s">
+      <c r="D53" s="248" t="s">
         <v>145</v>
       </c>
       <c r="E53" s="245"/>
@@ -8635,10 +8635,10 @@
       <c r="H54" s="12"/>
     </row>
     <row r="55" spans="1:8" ht="13.2">
-      <c r="A55" s="251" t="s">
+      <c r="A55" s="246" t="s">
         <v>146</v>
       </c>
-      <c r="B55" s="257" t="str">
+      <c r="B55" s="250" t="str">
         <f>HYPERLINK("https://docs.google.com/spreadsheets/d/1-A0sitOUOmHr_E7zoj5KQjrFGlZfWKU_mQ7AN4ztyOc/edit?usp=sharing","V1: initial release")</f>
         <v>V1: initial release</v>
       </c>
@@ -8651,7 +8651,7 @@
     </row>
     <row r="56" spans="1:8" ht="13.2">
       <c r="A56" s="245"/>
-      <c r="B56" s="261" t="str">
+      <c r="B56" s="247" t="str">
         <f>HYPERLINK("https://docs.google.com/spreadsheets/d/18u-0hLEMc8d8ti1NoYM5mfLT-hLqmfkZ7VxEo1PT71M/edit?usp=sharing","V2: Vidoes updates. Sheet P2A: Little problems replaced + reordering. P2B, P2C, P2D merged in P2B. P3A and P3B: new knowledge sheets")</f>
         <v>V2: Vidoes updates. Sheet P2A: Little problems replaced + reordering. P2B, P2C, P2D merged in P2B. P3A and P3B: new knowledge sheets</v>
       </c>
@@ -8664,7 +8664,7 @@
     </row>
     <row r="57" spans="1:8" ht="13.2">
       <c r="A57" s="245"/>
-      <c r="B57" s="262" t="str">
+      <c r="B57" s="249" t="str">
         <f>HYPERLINK("https://docs.google.com/spreadsheets/d/1ldypgOaAOjZL-IokWz8AqIojGx3rStHYYJc4CYHB5yw/edit?usp=sharing","V3: Added problem names. P3A, P3B split over 3 sheets, reordered to be more incremental rather than random")</f>
         <v>V3: Added problem names. P3A, P3B split over 3 sheets, reordered to be more incremental rather than random</v>
       </c>
@@ -8677,7 +8677,7 @@
     </row>
     <row r="58" spans="1:8" ht="13.2">
       <c r="A58" s="245"/>
-      <c r="B58" s="247" t="s">
+      <c r="B58" s="248" t="s">
         <v>149</v>
       </c>
       <c r="C58" s="245"/>
@@ -8702,7 +8702,7 @@
     </row>
     <row r="60" spans="1:8" ht="13.2">
       <c r="A60" s="245"/>
-      <c r="B60" s="248" t="s">
+      <c r="B60" s="251" t="s">
         <v>152</v>
       </c>
       <c r="C60" s="245"/>
@@ -8714,7 +8714,7 @@
     </row>
     <row r="61" spans="1:8" ht="13.2">
       <c r="A61" s="245"/>
-      <c r="B61" s="247" t="s">
+      <c r="B61" s="248" t="s">
         <v>153</v>
       </c>
       <c r="C61" s="245"/>
@@ -8738,7 +8738,7 @@
       <c r="A63" s="61" t="s">
         <v>154</v>
       </c>
-      <c r="B63" s="247" t="s">
+      <c r="B63" s="248" t="s">
         <v>157</v>
       </c>
       <c r="C63" s="245"/>
@@ -8759,7 +8759,7 @@
       <c r="H64" s="12"/>
     </row>
     <row r="65" spans="1:8" ht="13.2">
-      <c r="A65" s="244" t="s">
+      <c r="A65" s="260" t="s">
         <v>158</v>
       </c>
       <c r="B65" s="245"/>
@@ -8771,7 +8771,7 @@
       <c r="H65" s="245"/>
     </row>
     <row r="66" spans="1:8" ht="13.2">
-      <c r="A66" s="244" t="s">
+      <c r="A66" s="260" t="s">
         <v>160</v>
       </c>
       <c r="B66" s="245"/>
@@ -8783,7 +8783,7 @@
       <c r="H66" s="245"/>
     </row>
     <row r="67" spans="1:8" ht="13.2">
-      <c r="A67" s="244" t="s">
+      <c r="A67" s="260" t="s">
         <v>161</v>
       </c>
       <c r="B67" s="245"/>
@@ -8796,12 +8796,51 @@
     </row>
   </sheetData>
   <mergeCells count="67">
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="A55:A61"/>
-    <mergeCell ref="B56:H56"/>
-    <mergeCell ref="B58:H58"/>
-    <mergeCell ref="B57:H57"/>
-    <mergeCell ref="B61:H61"/>
+    <mergeCell ref="A66:H66"/>
+    <mergeCell ref="A67:H67"/>
+    <mergeCell ref="A65:H65"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="C41:H41"/>
+    <mergeCell ref="C42:H42"/>
+    <mergeCell ref="B32:H32"/>
+    <mergeCell ref="D51:H51"/>
+    <mergeCell ref="D52:H52"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="A48:A53"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="A39:A42"/>
+    <mergeCell ref="B24:H24"/>
+    <mergeCell ref="B25:H25"/>
+    <mergeCell ref="B23:H23"/>
+    <mergeCell ref="B22:H22"/>
+    <mergeCell ref="E29:H29"/>
+    <mergeCell ref="B27:H27"/>
+    <mergeCell ref="B28:H28"/>
+    <mergeCell ref="B46:H46"/>
+    <mergeCell ref="B44:H44"/>
+    <mergeCell ref="C36:H36"/>
+    <mergeCell ref="C37:H37"/>
+    <mergeCell ref="B30:H30"/>
+    <mergeCell ref="B31:H31"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A1:A4"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="B20:H20"/>
+    <mergeCell ref="B19:H19"/>
+    <mergeCell ref="B17:H17"/>
+    <mergeCell ref="B34:H34"/>
+    <mergeCell ref="A22:A32"/>
+    <mergeCell ref="B26:H26"/>
     <mergeCell ref="B63:H63"/>
     <mergeCell ref="D53:H53"/>
     <mergeCell ref="B55:H55"/>
@@ -8818,51 +8857,12 @@
     <mergeCell ref="D50:H50"/>
     <mergeCell ref="D48:H48"/>
     <mergeCell ref="D49:H49"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A1:A4"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="B20:H20"/>
-    <mergeCell ref="B19:H19"/>
-    <mergeCell ref="B17:H17"/>
-    <mergeCell ref="B34:H34"/>
-    <mergeCell ref="A22:A32"/>
-    <mergeCell ref="B26:H26"/>
-    <mergeCell ref="B46:H46"/>
-    <mergeCell ref="B44:H44"/>
-    <mergeCell ref="C36:H36"/>
-    <mergeCell ref="C37:H37"/>
-    <mergeCell ref="B30:H30"/>
-    <mergeCell ref="B31:H31"/>
-    <mergeCell ref="B24:H24"/>
-    <mergeCell ref="B25:H25"/>
-    <mergeCell ref="B23:H23"/>
-    <mergeCell ref="B22:H22"/>
-    <mergeCell ref="E29:H29"/>
-    <mergeCell ref="B27:H27"/>
-    <mergeCell ref="B28:H28"/>
-    <mergeCell ref="A66:H66"/>
-    <mergeCell ref="A67:H67"/>
-    <mergeCell ref="A65:H65"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="C41:H41"/>
-    <mergeCell ref="C42:H42"/>
-    <mergeCell ref="B32:H32"/>
-    <mergeCell ref="D51:H51"/>
-    <mergeCell ref="D52:H52"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="A48:A53"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="A39:A42"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="A55:A61"/>
+    <mergeCell ref="B56:H56"/>
+    <mergeCell ref="B58:H58"/>
+    <mergeCell ref="B57:H57"/>
+    <mergeCell ref="B61:H61"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11514,8 +11514,8 @@
   <dimension ref="A1:M246"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F54" sqref="F54"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B180" sqref="B180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.33203125" defaultRowHeight="15.75" customHeight="1"/>
@@ -11580,7 +11580,7 @@
       </c>
       <c r="C2" s="17">
         <f>COUNTIF(C3:C10516, "AC")</f>
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="D2" s="17" t="e">
         <f ca="1">ROUND(SUMPRODUCT(D3:D10516,INT(EQ(C3:C10516, "AC")))/MAX(1, C2),1)</f>
@@ -14862,7 +14862,7 @@
         <f>SUM(E126:G126)</f>
         <v>0</v>
       </c>
-      <c r="J126" s="254" t="s">
+      <c r="J126" s="256" t="s">
         <v>554</v>
       </c>
       <c r="K126" s="245"/>
@@ -15996,7 +15996,9 @@
         <f>HYPERLINK("http://codeforces.com/contest/275/problem/A","CF275-D2-A")</f>
         <v>CF275-D2-A</v>
       </c>
-      <c r="C173" s="16"/>
+      <c r="C173" s="16" t="s">
+        <v>82</v>
+      </c>
       <c r="D173" s="16"/>
       <c r="E173" s="16"/>
       <c r="F173" s="16"/>
@@ -16019,7 +16021,9 @@
         <f>HYPERLINK("http://codeforces.com/contest/276/problem/A","CF276-D2-A")</f>
         <v>CF276-D2-A</v>
       </c>
-      <c r="C174" s="16"/>
+      <c r="C174" s="16" t="s">
+        <v>82</v>
+      </c>
       <c r="D174" s="16"/>
       <c r="E174" s="16"/>
       <c r="F174" s="16"/>
@@ -16042,7 +16046,9 @@
         <f>HYPERLINK("http://codeforces.com/contest/588/problem/A","CF588-D2-A")</f>
         <v>CF588-D2-A</v>
       </c>
-      <c r="C175" s="16"/>
+      <c r="C175" s="16" t="s">
+        <v>82</v>
+      </c>
       <c r="D175" s="16"/>
       <c r="E175" s="16"/>
       <c r="F175" s="16"/>
@@ -16088,7 +16094,9 @@
         <f>HYPERLINK("http://codeforces.com/contest/424/problem/A","CF424-D2-A")</f>
         <v>CF424-D2-A</v>
       </c>
-      <c r="C177" s="16"/>
+      <c r="C177" s="16" t="s">
+        <v>82</v>
+      </c>
       <c r="D177" s="16"/>
       <c r="E177" s="16"/>
       <c r="F177" s="16"/>
@@ -16111,7 +16119,9 @@
         <f>HYPERLINK("http://codeforces.com/contest/144/problem/A","CF144-D2-A")</f>
         <v>CF144-D2-A</v>
       </c>
-      <c r="C178" s="16"/>
+      <c r="C178" s="16" t="s">
+        <v>82</v>
+      </c>
       <c r="D178" s="16"/>
       <c r="E178" s="16"/>
       <c r="F178" s="16"/>
@@ -16134,7 +16144,9 @@
         <f>HYPERLINK("http://codeforces.com/contest/63/problem/A","CF63-D2-A")</f>
         <v>CF63-D2-A</v>
       </c>
-      <c r="C179" s="16"/>
+      <c r="C179" s="16" t="s">
+        <v>82</v>
+      </c>
       <c r="D179" s="16"/>
       <c r="E179" s="16"/>
       <c r="F179" s="16"/>
@@ -21118,7 +21130,7 @@
         <f>SUM(E137:G137)</f>
         <v>0</v>
       </c>
-      <c r="J137" s="254" t="s">
+      <c r="J137" s="256" t="s">
         <v>470</v>
       </c>
       <c r="K137" s="245"/>
@@ -27211,7 +27223,7 @@
         <f>SUM(E180:G180)</f>
         <v>0</v>
       </c>
-      <c r="J180" s="254" t="s">
+      <c r="J180" s="256" t="s">
         <v>514</v>
       </c>
       <c r="K180" s="245"/>
@@ -31943,7 +31955,7 @@
         <f>SUM(E163:G163)</f>
         <v>0</v>
       </c>
-      <c r="J163" s="254" t="s">
+      <c r="J163" s="256" t="s">
         <v>514</v>
       </c>
       <c r="K163" s="245"/>

--- a/CP/Modules/Copy of Junior Training Sheet - template - V6.0 yash.xlsx
+++ b/CP/Modules/Copy of Junior Training Sheet - template - V6.0 yash.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\study\1-My C.P\CP\Modules\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51554CCA-4E43-4F74-BDD1-FD6C081B2502}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48CC89EE-CA04-4311-9C8F-EB98ABA483F4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12696" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6651,36 +6651,30 @@
     <xf numFmtId="0" fontId="173" fillId="9" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -6694,16 +6688,22 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -7909,10 +7909,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="13.2">
-      <c r="A1" s="246" t="s">
+      <c r="A1" s="251" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="256" t="s">
+      <c r="B1" s="254" t="s">
         <v>4</v>
       </c>
       <c r="C1" s="245"/>
@@ -7924,7 +7924,7 @@
     </row>
     <row r="2" spans="1:8" ht="26.4">
       <c r="A2" s="245"/>
-      <c r="B2" s="256" t="s">
+      <c r="B2" s="254" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="245"/>
@@ -7942,7 +7942,7 @@
     </row>
     <row r="3" spans="1:8" ht="13.2">
       <c r="A3" s="245"/>
-      <c r="B3" s="255" t="str">
+      <c r="B3" s="253" t="str">
         <f>HYPERLINK("https://www.youtube.com/watch?v=DZ6YTtILCE8","Video explaining this sheet (Arabic), though a bit outdated")</f>
         <v>Video explaining this sheet (Arabic), though a bit outdated</v>
       </c>
@@ -7955,7 +7955,7 @@
     </row>
     <row r="4" spans="1:8" ht="13.2">
       <c r="A4" s="245"/>
-      <c r="B4" s="252" t="s">
+      <c r="B4" s="258" t="s">
         <v>29</v>
       </c>
       <c r="C4" s="245"/>
@@ -7979,7 +7979,7 @@
       <c r="A6" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="248" t="s">
+      <c r="B6" s="247" t="s">
         <v>34</v>
       </c>
       <c r="C6" s="245"/>
@@ -8003,7 +8003,7 @@
       <c r="A8" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="253" t="s">
+      <c r="B8" s="259" t="s">
         <v>39</v>
       </c>
       <c r="C8" s="245"/>
@@ -8027,7 +8027,7 @@
       <c r="A10" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B10" s="251" t="s">
+      <c r="B10" s="248" t="s">
         <v>49</v>
       </c>
       <c r="C10" s="245"/>
@@ -8041,7 +8041,7 @@
       <c r="A11" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="B11" s="248" t="s">
+      <c r="B11" s="247" t="s">
         <v>57</v>
       </c>
       <c r="C11" s="245"/>
@@ -8052,10 +8052,10 @@
       <c r="H11" s="245"/>
     </row>
     <row r="12" spans="1:8" ht="13.2">
-      <c r="A12" s="246" t="s">
+      <c r="A12" s="251" t="s">
         <v>59</v>
       </c>
-      <c r="B12" s="251" t="s">
+      <c r="B12" s="248" t="s">
         <v>61</v>
       </c>
       <c r="C12" s="245"/>
@@ -8063,7 +8063,7 @@
         <f>HYPERLINK("https://www.youtube.com/playlist?list=PLPt2dINI2MIZPFq6HyUB1Uhxdh1UDnZMS","C++ Programming")</f>
         <v>C++ Programming</v>
       </c>
-      <c r="E12" s="251" t="s">
+      <c r="E12" s="248" t="s">
         <v>70</v>
       </c>
       <c r="F12" s="245"/>
@@ -8075,7 +8075,7 @@
     </row>
     <row r="13" spans="1:8" ht="13.2">
       <c r="A13" s="245"/>
-      <c r="B13" s="251" t="s">
+      <c r="B13" s="248" t="s">
         <v>75</v>
       </c>
       <c r="C13" s="245"/>
@@ -8093,13 +8093,13 @@
     </row>
     <row r="14" spans="1:8" ht="13.2">
       <c r="A14" s="245"/>
-      <c r="B14" s="254" t="s">
+      <c r="B14" s="260" t="s">
         <v>76</v>
       </c>
       <c r="C14" s="245"/>
       <c r="D14" s="245"/>
       <c r="E14" s="245"/>
-      <c r="F14" s="257" t="str">
+      <c r="F14" s="255" t="str">
         <f>HYPERLINK("https://www.youtube.com/playlist?list=PLPt2dINI2MIaNcU070HIAO8JWYBcafuyG","Watch these videos for more details")</f>
         <v>Watch these videos for more details</v>
       </c>
@@ -8108,17 +8108,17 @@
     </row>
     <row r="15" spans="1:8" ht="13.2">
       <c r="A15" s="245"/>
-      <c r="B15" s="251" t="s">
+      <c r="B15" s="248" t="s">
         <v>77</v>
       </c>
       <c r="C15" s="245"/>
       <c r="D15" s="245"/>
-      <c r="E15" s="261" t="str">
+      <c r="E15" s="246" t="str">
         <f>HYPERLINK("https://www.youtube.com/channel/UC2xOPGjIhLKsgUZEiunlzWQ/playlists","Solver to be Channel")</f>
         <v>Solver to be Channel</v>
       </c>
       <c r="F15" s="245"/>
-      <c r="G15" s="261" t="str">
+      <c r="G15" s="246" t="str">
         <f>HYPERLINK("https://www.youtube.com/user/codemasrytube/playlists","Code El Masry Channel")</f>
         <v>Code El Masry Channel</v>
       </c>
@@ -8138,7 +8138,7 @@
       <c r="A17" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="B17" s="258" t="s">
+      <c r="B17" s="256" t="s">
         <v>80</v>
       </c>
       <c r="C17" s="245"/>
@@ -8162,7 +8162,7 @@
       <c r="A19" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B19" s="251" t="s">
+      <c r="B19" s="248" t="s">
         <v>84</v>
       </c>
       <c r="C19" s="245"/>
@@ -8176,7 +8176,7 @@
       <c r="A20" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="B20" s="248" t="s">
+      <c r="B20" s="247" t="s">
         <v>86</v>
       </c>
       <c r="C20" s="245"/>
@@ -8197,10 +8197,10 @@
       <c r="H21" s="12"/>
     </row>
     <row r="22" spans="1:8" ht="13.2">
-      <c r="A22" s="246" t="s">
+      <c r="A22" s="251" t="s">
         <v>87</v>
       </c>
-      <c r="B22" s="251" t="s">
+      <c r="B22" s="248" t="s">
         <v>88</v>
       </c>
       <c r="C22" s="245"/>
@@ -8212,7 +8212,7 @@
     </row>
     <row r="23" spans="1:8" ht="13.2">
       <c r="A23" s="245"/>
-      <c r="B23" s="248" t="s">
+      <c r="B23" s="247" t="s">
         <v>89</v>
       </c>
       <c r="C23" s="245"/>
@@ -8224,7 +8224,7 @@
     </row>
     <row r="24" spans="1:8" ht="13.2">
       <c r="A24" s="245"/>
-      <c r="B24" s="251" t="s">
+      <c r="B24" s="248" t="s">
         <v>90</v>
       </c>
       <c r="C24" s="245"/>
@@ -8236,7 +8236,7 @@
     </row>
     <row r="25" spans="1:8" ht="13.2">
       <c r="A25" s="245"/>
-      <c r="B25" s="248" t="s">
+      <c r="B25" s="247" t="s">
         <v>91</v>
       </c>
       <c r="C25" s="245"/>
@@ -8248,7 +8248,7 @@
     </row>
     <row r="26" spans="1:8" ht="13.2">
       <c r="A26" s="245"/>
-      <c r="B26" s="251" t="s">
+      <c r="B26" s="248" t="s">
         <v>92</v>
       </c>
       <c r="C26" s="245"/>
@@ -8260,7 +8260,7 @@
     </row>
     <row r="27" spans="1:8" ht="13.2">
       <c r="A27" s="245"/>
-      <c r="B27" s="248" t="s">
+      <c r="B27" s="247" t="s">
         <v>93</v>
       </c>
       <c r="C27" s="245"/>
@@ -8272,7 +8272,7 @@
     </row>
     <row r="28" spans="1:8" ht="13.2">
       <c r="A28" s="245"/>
-      <c r="B28" s="251" t="s">
+      <c r="B28" s="248" t="s">
         <v>94</v>
       </c>
       <c r="C28" s="245"/>
@@ -8294,7 +8294,7 @@
       <c r="D29" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="E29" s="259" t="s">
+      <c r="E29" s="252" t="s">
         <v>102</v>
       </c>
       <c r="F29" s="245"/>
@@ -8303,7 +8303,7 @@
     </row>
     <row r="30" spans="1:8" ht="13.2">
       <c r="A30" s="245"/>
-      <c r="B30" s="251" t="s">
+      <c r="B30" s="248" t="s">
         <v>105</v>
       </c>
       <c r="C30" s="245"/>
@@ -8315,7 +8315,7 @@
     </row>
     <row r="31" spans="1:8" ht="13.2">
       <c r="A31" s="245"/>
-      <c r="B31" s="248" t="s">
+      <c r="B31" s="247" t="s">
         <v>107</v>
       </c>
       <c r="C31" s="245"/>
@@ -8327,7 +8327,7 @@
     </row>
     <row r="32" spans="1:8" ht="13.2">
       <c r="A32" s="245"/>
-      <c r="B32" s="251" t="s">
+      <c r="B32" s="248" t="s">
         <v>108</v>
       </c>
       <c r="C32" s="245"/>
@@ -8351,7 +8351,7 @@
       <c r="A34" s="33" t="s">
         <v>109</v>
       </c>
-      <c r="B34" s="248" t="s">
+      <c r="B34" s="247" t="s">
         <v>114</v>
       </c>
       <c r="C34" s="245"/>
@@ -8372,14 +8372,14 @@
       <c r="H35" s="12"/>
     </row>
     <row r="36" spans="1:8" ht="13.2">
-      <c r="A36" s="246" t="s">
+      <c r="A36" s="251" t="s">
         <v>118</v>
       </c>
       <c r="B36" s="35" t="str">
         <f>HYPERLINK("http://codeforces.com/contest/136/problem/A","CF136-D2-A")</f>
         <v>CF136-D2-A</v>
       </c>
-      <c r="C36" s="248" t="s">
+      <c r="C36" s="247" t="s">
         <v>123</v>
       </c>
       <c r="D36" s="245"/>
@@ -8393,7 +8393,7 @@
       <c r="B37" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="C37" s="248" t="s">
+      <c r="C37" s="247" t="s">
         <v>125</v>
       </c>
       <c r="D37" s="245"/>
@@ -8413,14 +8413,14 @@
       <c r="H38" s="12"/>
     </row>
     <row r="39" spans="1:8" ht="13.2">
-      <c r="A39" s="246" t="s">
+      <c r="A39" s="251" t="s">
         <v>126</v>
       </c>
       <c r="B39" s="37" t="str">
         <f>HYPERLINK("http://codeforces.com/contest/483/problem/A","CF483-D2-A")</f>
         <v>CF483-D2-A</v>
       </c>
-      <c r="C39" s="248" t="s">
+      <c r="C39" s="247" t="s">
         <v>128</v>
       </c>
       <c r="D39" s="245"/>
@@ -8435,7 +8435,7 @@
         <f>HYPERLINK("https://uva.onlinejudge.org/index.php?option=onlinejudge&amp;page=show_problem&amp;problem=1183","UVA 10242")</f>
         <v>UVA 10242</v>
       </c>
-      <c r="C40" s="248" t="s">
+      <c r="C40" s="247" t="s">
         <v>129</v>
       </c>
       <c r="D40" s="245"/>
@@ -8450,7 +8450,7 @@
         <f>HYPERLINK("http://www.spoj.com/problems/CDOWN/","SPOJ CDOWN")</f>
         <v>SPOJ CDOWN</v>
       </c>
-      <c r="C41" s="248" t="s">
+      <c r="C41" s="247" t="s">
         <v>130</v>
       </c>
       <c r="D41" s="245"/>
@@ -8465,7 +8465,7 @@
         <f>HYPERLINK("http://codeforces.com/contest/518/problem/B","CF518-D2-B")</f>
         <v>CF518-D2-B</v>
       </c>
-      <c r="C42" s="248" t="s">
+      <c r="C42" s="247" t="s">
         <v>132</v>
       </c>
       <c r="D42" s="245"/>
@@ -8488,7 +8488,7 @@
       <c r="A44" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B44" s="248" t="s">
+      <c r="B44" s="247" t="s">
         <v>134</v>
       </c>
       <c r="C44" s="245"/>
@@ -8512,7 +8512,7 @@
       <c r="A46" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B46" s="248" t="s">
+      <c r="B46" s="247" t="s">
         <v>136</v>
       </c>
       <c r="C46" s="245"/>
@@ -8533,15 +8533,15 @@
       <c r="H47" s="12"/>
     </row>
     <row r="48" spans="1:8" ht="13.2">
-      <c r="A48" s="246" t="s">
+      <c r="A48" s="251" t="s">
         <v>137</v>
       </c>
-      <c r="B48" s="262" t="str">
+      <c r="B48" s="249" t="str">
         <f>HYPERLINK("https://github.com/lnishan/awesome-competitive-programming","Awesome Competitive Programming")</f>
         <v>Awesome Competitive Programming</v>
       </c>
       <c r="C48" s="245"/>
-      <c r="D48" s="248" t="s">
+      <c r="D48" s="247" t="s">
         <v>139</v>
       </c>
       <c r="E48" s="245"/>
@@ -8551,12 +8551,12 @@
     </row>
     <row r="49" spans="1:8" ht="13.2">
       <c r="A49" s="245"/>
-      <c r="B49" s="262" t="str">
+      <c r="B49" s="249" t="str">
         <f>HYPERLINK("https://github.com/AhmadElsagheer/Competitive-programming-library/tree/master/curriculum","Ahmed Elsaghir Trainnig")</f>
         <v>Ahmed Elsaghir Trainnig</v>
       </c>
       <c r="C49" s="245"/>
-      <c r="D49" s="248" t="s">
+      <c r="D49" s="247" t="s">
         <v>140</v>
       </c>
       <c r="E49" s="245"/>
@@ -8566,12 +8566,12 @@
     </row>
     <row r="50" spans="1:8" ht="13.2">
       <c r="A50" s="245"/>
-      <c r="B50" s="262" t="str">
+      <c r="B50" s="249" t="str">
         <f>HYPERLINK("https://a2oj.com/ladders","A2oj Ladders")</f>
         <v>A2oj Ladders</v>
       </c>
       <c r="C50" s="245"/>
-      <c r="D50" s="248" t="s">
+      <c r="D50" s="247" t="s">
         <v>141</v>
       </c>
       <c r="E50" s="245"/>
@@ -8581,12 +8581,12 @@
     </row>
     <row r="51" spans="1:8" ht="13.2">
       <c r="A51" s="245"/>
-      <c r="B51" s="244" t="str">
+      <c r="B51" s="250" t="str">
         <f>HYPERLINK("https://www.youtube.com/watch?v=mUSajNUEWxg&amp;list=PLb7yniFBnvZIdfxYIKqNlGsTf5oZy4dKk","Prgramming Ahmed M sayd")</f>
         <v>Prgramming Ahmed M sayd</v>
       </c>
       <c r="C51" s="245"/>
-      <c r="D51" s="248" t="s">
+      <c r="D51" s="247" t="s">
         <v>142</v>
       </c>
       <c r="E51" s="245"/>
@@ -8596,12 +8596,12 @@
     </row>
     <row r="52" spans="1:8" ht="13.2">
       <c r="A52" s="245"/>
-      <c r="B52" s="244" t="str">
+      <c r="B52" s="250" t="str">
         <f>HYPERLINK("https://www.youtube.com/watch?v=Oc2j4cathVo&amp;list=PLqoqkiGo-sn0rs53nSUaLZI2kPvG_XM7G","Programming Mohamed desouky")</f>
         <v>Programming Mohamed desouky</v>
       </c>
       <c r="C52" s="245"/>
-      <c r="D52" s="248" t="s">
+      <c r="D52" s="247" t="s">
         <v>142</v>
       </c>
       <c r="E52" s="245"/>
@@ -8616,7 +8616,7 @@
         <v>More Resources</v>
       </c>
       <c r="C53" s="45"/>
-      <c r="D53" s="248" t="s">
+      <c r="D53" s="247" t="s">
         <v>145</v>
       </c>
       <c r="E53" s="245"/>
@@ -8635,10 +8635,10 @@
       <c r="H54" s="12"/>
     </row>
     <row r="55" spans="1:8" ht="13.2">
-      <c r="A55" s="246" t="s">
+      <c r="A55" s="251" t="s">
         <v>146</v>
       </c>
-      <c r="B55" s="250" t="str">
+      <c r="B55" s="257" t="str">
         <f>HYPERLINK("https://docs.google.com/spreadsheets/d/1-A0sitOUOmHr_E7zoj5KQjrFGlZfWKU_mQ7AN4ztyOc/edit?usp=sharing","V1: initial release")</f>
         <v>V1: initial release</v>
       </c>
@@ -8651,7 +8651,7 @@
     </row>
     <row r="56" spans="1:8" ht="13.2">
       <c r="A56" s="245"/>
-      <c r="B56" s="247" t="str">
+      <c r="B56" s="261" t="str">
         <f>HYPERLINK("https://docs.google.com/spreadsheets/d/18u-0hLEMc8d8ti1NoYM5mfLT-hLqmfkZ7VxEo1PT71M/edit?usp=sharing","V2: Vidoes updates. Sheet P2A: Little problems replaced + reordering. P2B, P2C, P2D merged in P2B. P3A and P3B: new knowledge sheets")</f>
         <v>V2: Vidoes updates. Sheet P2A: Little problems replaced + reordering. P2B, P2C, P2D merged in P2B. P3A and P3B: new knowledge sheets</v>
       </c>
@@ -8664,7 +8664,7 @@
     </row>
     <row r="57" spans="1:8" ht="13.2">
       <c r="A57" s="245"/>
-      <c r="B57" s="249" t="str">
+      <c r="B57" s="262" t="str">
         <f>HYPERLINK("https://docs.google.com/spreadsheets/d/1ldypgOaAOjZL-IokWz8AqIojGx3rStHYYJc4CYHB5yw/edit?usp=sharing","V3: Added problem names. P3A, P3B split over 3 sheets, reordered to be more incremental rather than random")</f>
         <v>V3: Added problem names. P3A, P3B split over 3 sheets, reordered to be more incremental rather than random</v>
       </c>
@@ -8677,7 +8677,7 @@
     </row>
     <row r="58" spans="1:8" ht="13.2">
       <c r="A58" s="245"/>
-      <c r="B58" s="248" t="s">
+      <c r="B58" s="247" t="s">
         <v>149</v>
       </c>
       <c r="C58" s="245"/>
@@ -8702,7 +8702,7 @@
     </row>
     <row r="60" spans="1:8" ht="13.2">
       <c r="A60" s="245"/>
-      <c r="B60" s="251" t="s">
+      <c r="B60" s="248" t="s">
         <v>152</v>
       </c>
       <c r="C60" s="245"/>
@@ -8714,7 +8714,7 @@
     </row>
     <row r="61" spans="1:8" ht="13.2">
       <c r="A61" s="245"/>
-      <c r="B61" s="248" t="s">
+      <c r="B61" s="247" t="s">
         <v>153</v>
       </c>
       <c r="C61" s="245"/>
@@ -8738,7 +8738,7 @@
       <c r="A63" s="61" t="s">
         <v>154</v>
       </c>
-      <c r="B63" s="248" t="s">
+      <c r="B63" s="247" t="s">
         <v>157</v>
       </c>
       <c r="C63" s="245"/>
@@ -8759,7 +8759,7 @@
       <c r="H64" s="12"/>
     </row>
     <row r="65" spans="1:8" ht="13.2">
-      <c r="A65" s="260" t="s">
+      <c r="A65" s="244" t="s">
         <v>158</v>
       </c>
       <c r="B65" s="245"/>
@@ -8771,7 +8771,7 @@
       <c r="H65" s="245"/>
     </row>
     <row r="66" spans="1:8" ht="13.2">
-      <c r="A66" s="260" t="s">
+      <c r="A66" s="244" t="s">
         <v>160</v>
       </c>
       <c r="B66" s="245"/>
@@ -8783,7 +8783,7 @@
       <c r="H66" s="245"/>
     </row>
     <row r="67" spans="1:8" ht="13.2">
-      <c r="A67" s="260" t="s">
+      <c r="A67" s="244" t="s">
         <v>161</v>
       </c>
       <c r="B67" s="245"/>
@@ -8796,6 +8796,57 @@
     </row>
   </sheetData>
   <mergeCells count="67">
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="A55:A61"/>
+    <mergeCell ref="B56:H56"/>
+    <mergeCell ref="B58:H58"/>
+    <mergeCell ref="B57:H57"/>
+    <mergeCell ref="B61:H61"/>
+    <mergeCell ref="B63:H63"/>
+    <mergeCell ref="D53:H53"/>
+    <mergeCell ref="B55:H55"/>
+    <mergeCell ref="B60:H60"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="B6:H6"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="C39:H39"/>
+    <mergeCell ref="C40:H40"/>
+    <mergeCell ref="D50:H50"/>
+    <mergeCell ref="D48:H48"/>
+    <mergeCell ref="D49:H49"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A1:A4"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="B20:H20"/>
+    <mergeCell ref="B19:H19"/>
+    <mergeCell ref="B17:H17"/>
+    <mergeCell ref="B34:H34"/>
+    <mergeCell ref="A22:A32"/>
+    <mergeCell ref="B26:H26"/>
+    <mergeCell ref="B46:H46"/>
+    <mergeCell ref="B44:H44"/>
+    <mergeCell ref="C36:H36"/>
+    <mergeCell ref="C37:H37"/>
+    <mergeCell ref="B30:H30"/>
+    <mergeCell ref="B31:H31"/>
+    <mergeCell ref="B24:H24"/>
+    <mergeCell ref="B25:H25"/>
+    <mergeCell ref="B23:H23"/>
+    <mergeCell ref="B22:H22"/>
+    <mergeCell ref="E29:H29"/>
+    <mergeCell ref="B27:H27"/>
+    <mergeCell ref="B28:H28"/>
     <mergeCell ref="A66:H66"/>
     <mergeCell ref="A67:H67"/>
     <mergeCell ref="A65:H65"/>
@@ -8812,57 +8863,6 @@
     <mergeCell ref="A48:A53"/>
     <mergeCell ref="B50:C50"/>
     <mergeCell ref="A39:A42"/>
-    <mergeCell ref="B24:H24"/>
-    <mergeCell ref="B25:H25"/>
-    <mergeCell ref="B23:H23"/>
-    <mergeCell ref="B22:H22"/>
-    <mergeCell ref="E29:H29"/>
-    <mergeCell ref="B27:H27"/>
-    <mergeCell ref="B28:H28"/>
-    <mergeCell ref="B46:H46"/>
-    <mergeCell ref="B44:H44"/>
-    <mergeCell ref="C36:H36"/>
-    <mergeCell ref="C37:H37"/>
-    <mergeCell ref="B30:H30"/>
-    <mergeCell ref="B31:H31"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A1:A4"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="B20:H20"/>
-    <mergeCell ref="B19:H19"/>
-    <mergeCell ref="B17:H17"/>
-    <mergeCell ref="B34:H34"/>
-    <mergeCell ref="A22:A32"/>
-    <mergeCell ref="B26:H26"/>
-    <mergeCell ref="B63:H63"/>
-    <mergeCell ref="D53:H53"/>
-    <mergeCell ref="B55:H55"/>
-    <mergeCell ref="B60:H60"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="B8:H8"/>
-    <mergeCell ref="B6:H6"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B10:H10"/>
-    <mergeCell ref="B11:H11"/>
-    <mergeCell ref="C39:H39"/>
-    <mergeCell ref="C40:H40"/>
-    <mergeCell ref="D50:H50"/>
-    <mergeCell ref="D48:H48"/>
-    <mergeCell ref="D49:H49"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="A55:A61"/>
-    <mergeCell ref="B56:H56"/>
-    <mergeCell ref="B58:H58"/>
-    <mergeCell ref="B57:H57"/>
-    <mergeCell ref="B61:H61"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11514,7 +11514,7 @@
   <dimension ref="A1:M246"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A169" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B180" sqref="B180"/>
     </sheetView>
   </sheetViews>
@@ -14862,7 +14862,7 @@
         <f>SUM(E126:G126)</f>
         <v>0</v>
       </c>
-      <c r="J126" s="256" t="s">
+      <c r="J126" s="254" t="s">
         <v>554</v>
       </c>
       <c r="K126" s="245"/>
@@ -17749,10 +17749,10 @@
   <dimension ref="A1:M217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F18" sqref="F18"/>
+      <selection pane="bottomRight" activeCell="F28" sqref="F22:F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.33203125" defaultRowHeight="15.75" customHeight="1"/>
@@ -21130,7 +21130,7 @@
         <f>SUM(E137:G137)</f>
         <v>0</v>
       </c>
-      <c r="J137" s="256" t="s">
+      <c r="J137" s="254" t="s">
         <v>470</v>
       </c>
       <c r="K137" s="245"/>
@@ -27223,7 +27223,7 @@
         <f>SUM(E180:G180)</f>
         <v>0</v>
       </c>
-      <c r="J180" s="256" t="s">
+      <c r="J180" s="254" t="s">
         <v>514</v>
       </c>
       <c r="K180" s="245"/>
@@ -31955,7 +31955,7 @@
         <f>SUM(E163:G163)</f>
         <v>0</v>
       </c>
-      <c r="J163" s="256" t="s">
+      <c r="J163" s="254" t="s">
         <v>514</v>
       </c>
       <c r="K163" s="245"/>
